--- a/medicine/Pharmacie/Classe_ATC_A06/Classe_ATC_A06.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_A06/Classe_ATC_A06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC A06, dénommée « Laxatifs », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA06[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC A06, dénommée « Laxatifs », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA06. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
 </t>
         </is>
       </c>
@@ -513,12 +525,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A06AA émollients
-A06AA01 paraffine liquide
+          <t>A06AA émollients</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A06AA01 paraffine liquide
 A06AA02 docusate de sodium
-A06AA51 associations à base de paraffine liquide
-A06AB laxatifs de contact
-A06AB01 Oxyphénisatine
+A06AA51 associations à base de paraffine liquide</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A06</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A06A Laxatifs</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A06AB laxatifs de contact</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A06AB01 Oxyphénisatine
 A06AB02 Bisacodyl
 A06AB03 Dantrone
 A06AB04 Phénolphtaléine
@@ -533,9 +584,43 @@
 A06AB53 Dantrone, associations
 A06AB56 Senna glycosides, associations
 A06AB57 Cascara, associations
-A06AB58 picosulfate de sodium, associations
-A06AC Laxatifs de lest
-A06AC01 Ispaghula (semences de Psylla)
+A06AB58 picosulfate de sodium, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A06</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A06A Laxatifs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A06AC Laxatifs de lest</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A06AC01 Ispaghula (semences de Psylla)
 A06AC02 Éthulose
 A06AC03 Sterculia
 A06AC05 Semence de lin
@@ -544,9 +629,43 @@
 A06AC08 Polycarbophil calcium
 A06AC51 Ispaghul, associations
 A06AC53 Sterculia, associations
-A06AC55 Semence de lin, associations
-A06AD laxatifs osmotiques
-A06AD01 carbonate de magnésium
+A06AC55 Semence de lin, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A06</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A06A Laxatifs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A06AD laxatifs osmotiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A06AD01 carbonate de magnésium
 A06AD02 oxyde de magnésium
 A06AD03 peroxyde de magnésium
 A06AD04 sulfate de magnésium
@@ -562,9 +681,43 @@
 A06AD19 citrate de magnésium
 A06AD21 tartrate de sodium
 A06AD61 Lactulose, associations
-A06AD65 Macrogol, associations
-A06AG Lavements
-A06AG01 phosphate trisodique
+A06AD65 Macrogol, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A06</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A06A Laxatifs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A06AG Lavements</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A06AG01 phosphate trisodique
 A06AG02 Bisacodyl
 A06AG03 Dantrone, y compris les associations
 A06AG04 Glycérol
@@ -572,14 +725,82 @@
 A06AG07 Sorbitol
 A06AG10 Docusate de sodium, y compris les associations
 A06AG11 Sodium lauryl sulfoacetate, y compris les associations
-A06AG20 associations
-A06AH Antagonistes de récepteurs opioïdes périphériques
-A06AH01 Bromure de méthylnaltrexone
+A06AG20 associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A06</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>A06A Laxatifs</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A06AH Antagonistes de récepteurs opioïdes périphériques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A06AH01 Bromure de méthylnaltrexone
 A06AH02 Alvimopan
 A06AH03 Naloxégol
-A06AH04 Naloxone
-A06AX Autres laxatifs
-A06AX01 Glycérol
+A06AH04 Naloxone</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A06</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A06A Laxatifs</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A06AX Autres laxatifs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>A06AX01 Glycérol
 A06AX02 Médicaments producteurs de dioxyde de carbone
 A06AX03 Lubiprostone
 A06AX04 Linaclotide
